--- a/Textbooks, projects/Applied Math/labs/lab_2/lab_2_var_4.xlsx
+++ b/Textbooks, projects/Applied Math/labs/lab_2/lab_2_var_4.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F9EAA8-91C4-4F26-B6EB-26F1FC9F1844}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="12510" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="13">
   <si>
     <t>x</t>
   </si>
@@ -58,7 +60,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -95,9 +97,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -116,7 +119,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -130,7 +133,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -301,6 +303,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FBC8-4D8A-8C02-DCFE7A7032AB}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -310,11 +317,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="402409848"/>
-        <c:axId val="402408280"/>
+        <c:axId val="378103376"/>
+        <c:axId val="378105336"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="402409848"/>
+        <c:axId val="378103376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -371,12 +378,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="402408280"/>
+        <c:crossAx val="378105336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="402408280"/>
+        <c:axId val="378105336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -433,7 +440,378 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="402409848"/>
+        <c:crossAx val="378103376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>y</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$A$2:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$B$2:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>-0.99467912331169073</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.468570755269301E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.24652280708231578</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-8.2002446028001774E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.8380447353018923E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.54280057655519354</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.17083304214464734</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.24075852181279433</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.80737730588643908</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0347096223313637</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0821376901866531</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.85702478848167551</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.36191507578896731</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.93293856937070352</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.1124554122582158</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BA33-49E7-805F-A01805B933EB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="382311912"/>
+        <c:axId val="382308384"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="382311912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="382308384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="382308384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="382311912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -522,7 +900,563 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1055,8 +1989,57 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>390524</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>109536</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>114299</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1149,6 +2132,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1184,6 +2184,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1359,11 +2376,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="W25" sqref="W25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1432,23 +2449,23 @@
         <v>1.5</v>
       </c>
       <c r="S2">
-        <f>LOG(P2+4,2)-0.5*(SIN(((P2+6)/3)^3)+5)</f>
+        <f t="shared" ref="S2:U3" si="0">LOG(P2+4,2)-0.5*(SIN(((P2+6)/3)^3)+5)</f>
         <v>-0.24652280708231578</v>
       </c>
       <c r="T2">
-        <f>LOG(Q2+4,2)-0.5*(SIN(((Q2+6)/3)^3)+5)</f>
+        <f t="shared" si="0"/>
         <v>2.8380447353018923E-2</v>
       </c>
       <c r="U2">
-        <f>LOG(R2+4,2)-0.5*(SIN(((R2+6)/3)^3)+5)</f>
+        <f t="shared" si="0"/>
         <v>-8.2002446028001774E-2</v>
       </c>
       <c r="V2">
         <f>ABS(P2-R2)</f>
         <v>0.5</v>
       </c>
-      <c r="X2">
-        <v>1</v>
+      <c r="X2" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
@@ -1456,7 +2473,7 @@
         <v>0.5</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B16" si="0">LOG(A3+4,2)-0.5*(SIN(((A3+6)/3)^3)+5)</f>
+        <f t="shared" ref="B3:B16" si="1">LOG(A3+4,2)-0.5*(SIN(((A3+6)/3)^3)+5)</f>
         <v>9.468570755269301E-3</v>
       </c>
       <c r="P3">
@@ -1472,36 +2489,36 @@
         <v>1.75</v>
       </c>
       <c r="S3">
-        <f>LOG(P3+4,2)-0.5*(SIN(((P3+6)/3)^3)+5)</f>
+        <f t="shared" si="0"/>
         <v>-8.2002446028001774E-2</v>
       </c>
       <c r="T3">
-        <f>LOG(Q3+4,2)-0.5*(SIN(((Q3+6)/3)^3)+5)</f>
+        <f t="shared" si="0"/>
         <v>2.8380447353018923E-2</v>
       </c>
       <c r="U3">
-        <f>LOG(R3+4,2)-0.5*(SIN(((R3+6)/3)^3)+5)</f>
+        <f t="shared" si="0"/>
         <v>0.52318955942737988</v>
       </c>
       <c r="V3">
-        <f t="shared" ref="V3:V18" si="1">ABS(P3-R3)</f>
+        <f t="shared" ref="V3:V18" si="2">ABS(P3-R3)</f>
         <v>0.25</v>
       </c>
       <c r="X3">
         <f>X2-Y3/Z3</f>
-        <v>0.89762564956386726</v>
+        <v>2.0086203369359028</v>
       </c>
       <c r="Y3">
         <f>LOG(X2+4,2)-0.5*(SIN(((X2+6)/3)^3)+5)</f>
-        <v>-0.24652280708231578</v>
+        <v>2.8380447353018923E-2</v>
       </c>
       <c r="Z3">
         <f>(1/((X2+4)*LN(2)))-0.5*COS(((X2+6)/3)^3)*(((X2+6)/3)^2)</f>
-        <v>-2.4080524665805969</v>
+        <v>-3.2922665974710776</v>
       </c>
       <c r="AA3">
         <f>ABS(X3-X2)</f>
-        <v>0.10237435043613274</v>
+        <v>8.6203369359028059E-3</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
@@ -1509,52 +2526,52 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.24652280708231578</v>
       </c>
       <c r="P4">
-        <f t="shared" ref="P4:P18" si="2">IF(S3*U3&gt;0,R3,P3)</f>
+        <f t="shared" ref="P4:P18" si="3">IF(S3*U3&gt;0,R3,P3)</f>
         <v>1.5</v>
       </c>
       <c r="Q4">
-        <f t="shared" ref="Q4:Q18" si="3">IF(T3*U3&gt;0,R3,Q3)</f>
+        <f t="shared" ref="Q4:Q18" si="4">IF(T3*U3&gt;0,R3,Q3)</f>
         <v>1.75</v>
       </c>
       <c r="R4">
-        <f t="shared" ref="R4:R18" si="4">(P4+Q4)/2</f>
+        <f t="shared" ref="R4:R18" si="5">(P4+Q4)/2</f>
         <v>1.625</v>
       </c>
       <c r="S4">
-        <f t="shared" ref="S4:S18" si="5">LOG(P4+4,2)-0.5*(SIN(((P4+6)/3)^3)+5)</f>
+        <f t="shared" ref="S4:S18" si="6">LOG(P4+4,2)-0.5*(SIN(((P4+6)/3)^3)+5)</f>
         <v>-8.2002446028001774E-2</v>
       </c>
       <c r="T4">
-        <f t="shared" ref="T4:T18" si="6">LOG(Q4+4,2)-0.5*(SIN(((Q4+6)/3)^3)+5)</f>
+        <f t="shared" ref="T4:T18" si="7">LOG(Q4+4,2)-0.5*(SIN(((Q4+6)/3)^3)+5)</f>
         <v>0.52318955942737988</v>
       </c>
       <c r="U4">
-        <f t="shared" ref="U4:U18" si="7">LOG(R4+4,2)-0.5*(SIN(((R4+6)/3)^3)+5)</f>
+        <f t="shared" ref="U4:U18" si="8">LOG(R4+4,2)-0.5*(SIN(((R4+6)/3)^3)+5)</f>
         <v>0.31829290442543501</v>
       </c>
       <c r="V4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.125</v>
       </c>
       <c r="X4">
-        <f t="shared" ref="X4:X18" si="8">X3-Y4/Z4</f>
-        <v>0.89399241978765653</v>
+        <f t="shared" ref="X4:X18" si="9">X3-Y4/Z4</f>
+        <v>2.0086482740896847</v>
       </c>
       <c r="Y4">
-        <f t="shared" ref="Y4:Y18" si="9">LOG(X3+4,2)-0.5*(SIN(((X3+6)/3)^3)+5)</f>
-        <v>-7.7297353567420402E-3</v>
+        <f t="shared" ref="Y4:Y18" si="10">LOG(X3+4,2)-0.5*(SIN(((X3+6)/3)^3)+5)</f>
+        <v>9.1321968869628734E-5</v>
       </c>
       <c r="Z4">
-        <f t="shared" ref="Z4:Z18" si="10">(1/((X3+4)*LN(2)))-0.5*COS(((X3+6)/3)^3)*(((X3+6)/3)^2)</f>
-        <v>-2.1275107364125456</v>
+        <f t="shared" ref="Z4:Z18" si="11">(1/((X3+4)*LN(2)))-0.5*COS(((X3+6)/3)^3)*(((X3+6)/3)^2)</f>
+        <v>-3.2688358156324897</v>
       </c>
       <c r="AA4">
-        <f t="shared" ref="AA4:AA18" si="11">ABS(X4-X3)</f>
-        <v>3.6332297762107224E-3</v>
+        <f t="shared" ref="AA4:AA18" si="12">ABS(X4-X3)</f>
+        <v>2.7937153781909529E-5</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
@@ -1562,52 +2579,52 @@
         <v>1.5</v>
       </c>
       <c r="B5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-8.2002446028001774E-2</v>
       </c>
       <c r="P5">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="4"/>
+        <v>1.625</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="5"/>
+        <v>1.5625</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="6"/>
+        <v>-8.2002446028001774E-2</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="7"/>
+        <v>0.31829290442543501</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="8"/>
+        <v>0.12870360590416752</v>
+      </c>
+      <c r="V5">
         <f t="shared" si="2"/>
-        <v>1.5</v>
-      </c>
-      <c r="Q5">
-        <f t="shared" si="3"/>
-        <v>1.625</v>
-      </c>
-      <c r="R5">
-        <f t="shared" si="4"/>
-        <v>1.5625</v>
-      </c>
-      <c r="S5">
-        <f t="shared" si="5"/>
-        <v>-8.2002446028001774E-2</v>
-      </c>
-      <c r="T5">
-        <f t="shared" si="6"/>
-        <v>0.31829290442543501</v>
-      </c>
-      <c r="U5">
-        <f t="shared" si="7"/>
-        <v>0.12870360590416752</v>
-      </c>
-      <c r="V5">
-        <f t="shared" si="1"/>
         <v>6.25E-2</v>
       </c>
       <c r="X5">
-        <f t="shared" si="8"/>
-        <v>0.89397224129482555</v>
+        <f t="shared" si="9"/>
+        <v>2.0086482745076442</v>
       </c>
       <c r="Y5">
-        <f t="shared" si="9"/>
-        <v>-4.2455610721692238E-5</v>
+        <f t="shared" si="10"/>
+        <v>1.3662004860748311E-9</v>
       </c>
       <c r="Z5">
-        <f t="shared" si="10"/>
-        <v>-2.1040030629245563</v>
+        <f t="shared" si="11"/>
+        <v>-3.2687379864067565</v>
       </c>
       <c r="AA5">
-        <f t="shared" si="11"/>
-        <v>2.0178492830980055E-5</v>
+        <f t="shared" si="12"/>
+        <v>4.1795944483169478E-10</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
@@ -1615,52 +2632,52 @@
         <v>2</v>
       </c>
       <c r="B6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.8380447353018923E-2</v>
       </c>
       <c r="P6">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="4"/>
+        <v>1.5625</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="5"/>
+        <v>1.53125</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="6"/>
+        <v>-8.2002446028001774E-2</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="7"/>
+        <v>0.12870360590416752</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="8"/>
+        <v>2.4066943362107907E-2</v>
+      </c>
+      <c r="V6">
         <f t="shared" si="2"/>
-        <v>1.5</v>
-      </c>
-      <c r="Q6">
-        <f t="shared" si="3"/>
-        <v>1.5625</v>
-      </c>
-      <c r="R6">
-        <f t="shared" si="4"/>
-        <v>1.53125</v>
-      </c>
-      <c r="S6">
-        <f t="shared" si="5"/>
-        <v>-8.2002446028001774E-2</v>
-      </c>
-      <c r="T6">
-        <f t="shared" si="6"/>
-        <v>0.12870360590416752</v>
-      </c>
-      <c r="U6">
-        <f t="shared" si="7"/>
-        <v>2.4066943362107907E-2</v>
-      </c>
-      <c r="V6">
-        <f t="shared" si="1"/>
         <v>3.125E-2</v>
       </c>
       <c r="X6">
-        <f t="shared" si="8"/>
-        <v>0.89397224065776904</v>
+        <f t="shared" si="9"/>
+        <v>2.0086482745076442</v>
       </c>
       <c r="Y6">
-        <f t="shared" si="9"/>
-        <v>-1.3402843279664012E-9</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <f t="shared" si="10"/>
-        <v>-2.1038702160926381</v>
+        <f t="shared" si="11"/>
+        <v>-3.2687379849421041</v>
       </c>
       <c r="AA6">
-        <f t="shared" si="11"/>
-        <v>6.3705651864864876E-10</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
@@ -1668,51 +2685,51 @@
         <v>2.5</v>
       </c>
       <c r="B7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.54280057655519354</v>
       </c>
       <c r="P7">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="4"/>
+        <v>1.53125</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="5"/>
+        <v>1.515625</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="6"/>
+        <v>-8.2002446028001774E-2</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="7"/>
+        <v>2.4066943362107907E-2</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="8"/>
+        <v>-2.902761526958697E-2</v>
+      </c>
+      <c r="V7">
         <f t="shared" si="2"/>
-        <v>1.5</v>
-      </c>
-      <c r="Q7">
-        <f t="shared" si="3"/>
-        <v>1.53125</v>
-      </c>
-      <c r="R7">
-        <f t="shared" si="4"/>
-        <v>1.515625</v>
-      </c>
-      <c r="S7">
-        <f t="shared" si="5"/>
-        <v>-8.2002446028001774E-2</v>
-      </c>
-      <c r="T7">
-        <f t="shared" si="6"/>
-        <v>2.4066943362107907E-2</v>
-      </c>
-      <c r="U7">
-        <f t="shared" si="7"/>
-        <v>-2.902761526958697E-2</v>
-      </c>
-      <c r="V7">
-        <f t="shared" si="1"/>
         <v>1.5625E-2</v>
       </c>
       <c r="X7">
-        <f t="shared" si="8"/>
-        <v>0.89397224065776904</v>
+        <f t="shared" si="9"/>
+        <v>2.0086482745076442</v>
       </c>
       <c r="Y7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Z7">
-        <f t="shared" si="10"/>
-        <v>-2.1038702118981241</v>
+        <f t="shared" si="11"/>
+        <v>-3.2687379849421041</v>
       </c>
       <c r="AA7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -1721,51 +2738,51 @@
         <v>3</v>
       </c>
       <c r="B8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.17083304214464734</v>
       </c>
       <c r="P8">
+        <f t="shared" si="3"/>
+        <v>1.515625</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="4"/>
+        <v>1.53125</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="5"/>
+        <v>1.5234375</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="6"/>
+        <v>-2.902761526958697E-2</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="7"/>
+        <v>2.4066943362107907E-2</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="8"/>
+        <v>-2.4657411363508963E-3</v>
+      </c>
+      <c r="V8">
         <f t="shared" si="2"/>
-        <v>1.515625</v>
-      </c>
-      <c r="Q8">
-        <f t="shared" si="3"/>
-        <v>1.53125</v>
-      </c>
-      <c r="R8">
-        <f t="shared" si="4"/>
-        <v>1.5234375</v>
-      </c>
-      <c r="S8">
-        <f t="shared" si="5"/>
-        <v>-2.902761526958697E-2</v>
-      </c>
-      <c r="T8">
-        <f t="shared" si="6"/>
-        <v>2.4066943362107907E-2</v>
-      </c>
-      <c r="U8">
-        <f t="shared" si="7"/>
-        <v>-2.4657411363508963E-3</v>
-      </c>
-      <c r="V8">
-        <f t="shared" si="1"/>
         <v>7.8125E-3</v>
       </c>
       <c r="X8">
-        <f t="shared" si="8"/>
-        <v>0.89397224065776904</v>
+        <f t="shared" si="9"/>
+        <v>2.0086482745076442</v>
       </c>
       <c r="Y8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Z8">
-        <f t="shared" si="10"/>
-        <v>-2.1038702118981241</v>
+        <f t="shared" si="11"/>
+        <v>-3.2687379849421041</v>
       </c>
       <c r="AA8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -1774,51 +2791,51 @@
         <v>3.5</v>
       </c>
       <c r="B9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.24075852181279433</v>
       </c>
       <c r="P9">
+        <f t="shared" si="3"/>
+        <v>1.5234375</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="4"/>
+        <v>1.53125</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="5"/>
+        <v>1.52734375</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="6"/>
+        <v>-2.4657411363508963E-3</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="7"/>
+        <v>2.4066943362107907E-2</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="8"/>
+        <v>1.0807978961921538E-2</v>
+      </c>
+      <c r="V9">
         <f t="shared" si="2"/>
-        <v>1.5234375</v>
-      </c>
-      <c r="Q9">
-        <f t="shared" si="3"/>
-        <v>1.53125</v>
-      </c>
-      <c r="R9">
-        <f t="shared" si="4"/>
-        <v>1.52734375</v>
-      </c>
-      <c r="S9">
-        <f t="shared" si="5"/>
-        <v>-2.4657411363508963E-3</v>
-      </c>
-      <c r="T9">
-        <f t="shared" si="6"/>
-        <v>2.4066943362107907E-2</v>
-      </c>
-      <c r="U9">
-        <f t="shared" si="7"/>
-        <v>1.0807978961921538E-2</v>
-      </c>
-      <c r="V9">
-        <f t="shared" si="1"/>
         <v>3.90625E-3</v>
       </c>
       <c r="X9">
-        <f t="shared" si="8"/>
-        <v>0.89397224065776904</v>
+        <f t="shared" si="9"/>
+        <v>2.0086482745076442</v>
       </c>
       <c r="Y9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Z9">
-        <f t="shared" si="10"/>
-        <v>-2.1038702118981241</v>
+        <f t="shared" si="11"/>
+        <v>-3.2687379849421041</v>
       </c>
       <c r="AA9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -1827,51 +2844,51 @@
         <v>4</v>
       </c>
       <c r="B10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.80737730588643908</v>
       </c>
       <c r="P10">
+        <f t="shared" si="3"/>
+        <v>1.5234375</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="4"/>
+        <v>1.52734375</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="5"/>
+        <v>1.525390625</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="6"/>
+        <v>-2.4657411363508963E-3</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="7"/>
+        <v>1.0807978961921538E-2</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="8"/>
+        <v>4.1724959344091594E-3</v>
+      </c>
+      <c r="V10">
         <f t="shared" si="2"/>
-        <v>1.5234375</v>
-      </c>
-      <c r="Q10">
-        <f t="shared" si="3"/>
-        <v>1.52734375</v>
-      </c>
-      <c r="R10">
-        <f t="shared" si="4"/>
-        <v>1.525390625</v>
-      </c>
-      <c r="S10">
-        <f t="shared" si="5"/>
-        <v>-2.4657411363508963E-3</v>
-      </c>
-      <c r="T10">
-        <f t="shared" si="6"/>
-        <v>1.0807978961921538E-2</v>
-      </c>
-      <c r="U10">
-        <f t="shared" si="7"/>
-        <v>4.1724959344091594E-3</v>
-      </c>
-      <c r="V10">
-        <f t="shared" si="1"/>
         <v>1.953125E-3</v>
       </c>
       <c r="X10">
-        <f t="shared" si="8"/>
-        <v>0.89397224065776904</v>
+        <f t="shared" si="9"/>
+        <v>2.0086482745076442</v>
       </c>
       <c r="Y10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Z10">
-        <f t="shared" si="10"/>
-        <v>-2.1038702118981241</v>
+        <f t="shared" si="11"/>
+        <v>-3.2687379849421041</v>
       </c>
       <c r="AA10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -1880,51 +2897,51 @@
         <v>4.5</v>
       </c>
       <c r="B11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0347096223313637</v>
       </c>
       <c r="P11">
+        <f t="shared" si="3"/>
+        <v>1.5234375</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="4"/>
+        <v>1.525390625</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="5"/>
+        <v>1.5244140625</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="6"/>
+        <v>-2.4657411363508963E-3</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="7"/>
+        <v>4.1724959344091594E-3</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="8"/>
+        <v>8.536633310578523E-4</v>
+      </c>
+      <c r="V11">
         <f t="shared" si="2"/>
-        <v>1.5234375</v>
-      </c>
-      <c r="Q11">
-        <f t="shared" si="3"/>
-        <v>1.525390625</v>
-      </c>
-      <c r="R11">
-        <f t="shared" si="4"/>
-        <v>1.5244140625</v>
-      </c>
-      <c r="S11">
-        <f t="shared" si="5"/>
-        <v>-2.4657411363508963E-3</v>
-      </c>
-      <c r="T11">
-        <f t="shared" si="6"/>
-        <v>4.1724959344091594E-3</v>
-      </c>
-      <c r="U11">
-        <f t="shared" si="7"/>
-        <v>8.536633310578523E-4</v>
-      </c>
-      <c r="V11">
-        <f t="shared" si="1"/>
         <v>9.765625E-4</v>
       </c>
       <c r="X11">
-        <f t="shared" si="8"/>
-        <v>0.89397224065776904</v>
+        <f t="shared" si="9"/>
+        <v>2.0086482745076442</v>
       </c>
       <c r="Y11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Z11">
-        <f t="shared" si="10"/>
-        <v>-2.1038702118981241</v>
+        <f t="shared" si="11"/>
+        <v>-3.2687379849421041</v>
       </c>
       <c r="AA11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -1933,51 +2950,51 @@
         <v>5</v>
       </c>
       <c r="B12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0821376901866531</v>
       </c>
       <c r="P12">
+        <f t="shared" si="3"/>
+        <v>1.5234375</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="4"/>
+        <v>1.5244140625</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="5"/>
+        <v>1.52392578125</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="6"/>
+        <v>-2.4657411363508963E-3</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="7"/>
+        <v>8.536633310578523E-4</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="8"/>
+        <v>-8.0597470303755969E-4</v>
+      </c>
+      <c r="V12">
         <f t="shared" si="2"/>
-        <v>1.5234375</v>
-      </c>
-      <c r="Q12">
-        <f t="shared" si="3"/>
-        <v>1.5244140625</v>
-      </c>
-      <c r="R12">
-        <f t="shared" si="4"/>
-        <v>1.52392578125</v>
-      </c>
-      <c r="S12">
-        <f t="shared" si="5"/>
-        <v>-2.4657411363508963E-3</v>
-      </c>
-      <c r="T12">
-        <f t="shared" si="6"/>
-        <v>8.536633310578523E-4</v>
-      </c>
-      <c r="U12">
-        <f t="shared" si="7"/>
-        <v>-8.0597470303755969E-4</v>
-      </c>
-      <c r="V12">
-        <f t="shared" si="1"/>
         <v>4.8828125E-4</v>
       </c>
       <c r="X12">
-        <f t="shared" si="8"/>
-        <v>0.89397224065776904</v>
+        <f t="shared" si="9"/>
+        <v>2.0086482745076442</v>
       </c>
       <c r="Y12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Z12">
-        <f t="shared" si="10"/>
-        <v>-2.1038702118981241</v>
+        <f t="shared" si="11"/>
+        <v>-3.2687379849421041</v>
       </c>
       <c r="AA12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -1986,51 +3003,51 @@
         <v>5.5</v>
       </c>
       <c r="B13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.85702478848167551</v>
       </c>
       <c r="P13">
+        <f t="shared" si="3"/>
+        <v>1.52392578125</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="4"/>
+        <v>1.5244140625</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="5"/>
+        <v>1.524169921875</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="6"/>
+        <v>-8.0597470303755969E-4</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="7"/>
+        <v>8.536633310578523E-4</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="8"/>
+        <v>2.3861274016212519E-5</v>
+      </c>
+      <c r="V13">
         <f t="shared" si="2"/>
-        <v>1.52392578125</v>
-      </c>
-      <c r="Q13">
-        <f t="shared" si="3"/>
-        <v>1.5244140625</v>
-      </c>
-      <c r="R13">
-        <f t="shared" si="4"/>
-        <v>1.524169921875</v>
-      </c>
-      <c r="S13">
-        <f t="shared" si="5"/>
-        <v>-8.0597470303755969E-4</v>
-      </c>
-      <c r="T13">
-        <f t="shared" si="6"/>
-        <v>8.536633310578523E-4</v>
-      </c>
-      <c r="U13">
-        <f t="shared" si="7"/>
-        <v>2.3861274016212519E-5</v>
-      </c>
-      <c r="V13">
-        <f t="shared" si="1"/>
         <v>2.44140625E-4</v>
       </c>
       <c r="X13">
-        <f t="shared" si="8"/>
-        <v>0.89397224065776904</v>
+        <f t="shared" si="9"/>
+        <v>2.0086482745076442</v>
       </c>
       <c r="Y13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Z13">
-        <f t="shared" si="10"/>
-        <v>-2.1038702118981241</v>
+        <f t="shared" si="11"/>
+        <v>-3.2687379849421041</v>
       </c>
       <c r="AA13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -2039,51 +3056,51 @@
         <v>6</v>
       </c>
       <c r="B14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.36191507578896731</v>
       </c>
       <c r="P14">
+        <f t="shared" si="3"/>
+        <v>1.52392578125</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="4"/>
+        <v>1.524169921875</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="5"/>
+        <v>1.5240478515625</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="6"/>
+        <v>-8.0597470303755969E-4</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="7"/>
+        <v>2.3861274016212519E-5</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="8"/>
+        <v>-3.9105258828975309E-4</v>
+      </c>
+      <c r="V14">
         <f t="shared" si="2"/>
-        <v>1.52392578125</v>
-      </c>
-      <c r="Q14">
-        <f t="shared" si="3"/>
-        <v>1.524169921875</v>
-      </c>
-      <c r="R14">
-        <f t="shared" si="4"/>
-        <v>1.5240478515625</v>
-      </c>
-      <c r="S14">
-        <f t="shared" si="5"/>
-        <v>-8.0597470303755969E-4</v>
-      </c>
-      <c r="T14">
-        <f t="shared" si="6"/>
-        <v>2.3861274016212519E-5</v>
-      </c>
-      <c r="U14">
-        <f t="shared" si="7"/>
-        <v>-3.9105258828975309E-4</v>
-      </c>
-      <c r="V14">
-        <f t="shared" si="1"/>
         <v>1.220703125E-4</v>
       </c>
       <c r="X14">
-        <f t="shared" si="8"/>
-        <v>0.89397224065776904</v>
+        <f t="shared" si="9"/>
+        <v>2.0086482745076442</v>
       </c>
       <c r="Y14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Z14">
-        <f t="shared" si="10"/>
-        <v>-2.1038702118981241</v>
+        <f t="shared" si="11"/>
+        <v>-3.2687379849421041</v>
       </c>
       <c r="AA14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -2092,51 +3109,51 @@
         <v>6.5</v>
       </c>
       <c r="B15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.93293856937070352</v>
       </c>
       <c r="P15">
+        <f t="shared" si="3"/>
+        <v>1.5240478515625</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="4"/>
+        <v>1.524169921875</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="5"/>
+        <v>1.52410888671875</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="6"/>
+        <v>-3.9105258828975309E-4</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="7"/>
+        <v>2.3861274016212519E-5</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="8"/>
+        <v>-1.8359461136352451E-4</v>
+      </c>
+      <c r="V15">
         <f t="shared" si="2"/>
-        <v>1.5240478515625</v>
-      </c>
-      <c r="Q15">
-        <f t="shared" si="3"/>
-        <v>1.524169921875</v>
-      </c>
-      <c r="R15">
-        <f t="shared" si="4"/>
-        <v>1.52410888671875</v>
-      </c>
-      <c r="S15">
-        <f t="shared" si="5"/>
-        <v>-3.9105258828975309E-4</v>
-      </c>
-      <c r="T15">
-        <f t="shared" si="6"/>
-        <v>2.3861274016212519E-5</v>
-      </c>
-      <c r="U15">
-        <f t="shared" si="7"/>
-        <v>-1.8359461136352451E-4</v>
-      </c>
-      <c r="V15">
-        <f t="shared" si="1"/>
         <v>6.103515625E-5</v>
       </c>
       <c r="X15">
-        <f t="shared" si="8"/>
-        <v>0.89397224065776904</v>
+        <f t="shared" si="9"/>
+        <v>2.0086482745076442</v>
       </c>
       <c r="Y15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Z15">
-        <f t="shared" si="10"/>
-        <v>-2.1038702118981241</v>
+        <f t="shared" si="11"/>
+        <v>-3.2687379849421041</v>
       </c>
       <c r="AA15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -2145,143 +3162,143 @@
         <v>7</v>
       </c>
       <c r="B16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1124554122582158</v>
       </c>
       <c r="P16">
+        <f t="shared" si="3"/>
+        <v>1.52410888671875</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="4"/>
+        <v>1.524169921875</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="5"/>
+        <v>1.524139404296875</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="6"/>
+        <v>-1.8359461136352451E-4</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="7"/>
+        <v>2.3861274016212519E-5</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="8"/>
+        <v>-7.9866405449102729E-5</v>
+      </c>
+      <c r="V16">
         <f t="shared" si="2"/>
-        <v>1.52410888671875</v>
-      </c>
-      <c r="Q16">
-        <f t="shared" si="3"/>
-        <v>1.524169921875</v>
-      </c>
-      <c r="R16">
-        <f t="shared" si="4"/>
-        <v>1.524139404296875</v>
-      </c>
-      <c r="S16">
-        <f t="shared" si="5"/>
-        <v>-1.8359461136352451E-4</v>
-      </c>
-      <c r="T16">
-        <f t="shared" si="6"/>
-        <v>2.3861274016212519E-5</v>
-      </c>
-      <c r="U16">
-        <f t="shared" si="7"/>
-        <v>-7.9866405449102729E-5</v>
-      </c>
-      <c r="V16">
-        <f t="shared" si="1"/>
         <v>3.0517578125E-5</v>
       </c>
       <c r="X16">
-        <f t="shared" si="8"/>
-        <v>0.89397224065776904</v>
+        <f t="shared" si="9"/>
+        <v>2.0086482745076442</v>
       </c>
       <c r="Y16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Z16">
-        <f t="shared" si="10"/>
-        <v>-2.1038702118981241</v>
+        <f t="shared" si="11"/>
+        <v>-3.2687379849421041</v>
       </c>
       <c r="AA16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P17">
+        <f t="shared" si="3"/>
+        <v>1.524139404296875</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="4"/>
+        <v>1.524169921875</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="5"/>
+        <v>1.5241546630859375</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="6"/>
+        <v>-7.9866405449102729E-5</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="7"/>
+        <v>2.3861274016212519E-5</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="8"/>
+        <v>-2.8002499690149563E-5</v>
+      </c>
+      <c r="V17">
         <f t="shared" si="2"/>
-        <v>1.524139404296875</v>
-      </c>
-      <c r="Q17">
-        <f t="shared" si="3"/>
-        <v>1.524169921875</v>
-      </c>
-      <c r="R17">
-        <f t="shared" si="4"/>
-        <v>1.5241546630859375</v>
-      </c>
-      <c r="S17">
-        <f t="shared" si="5"/>
-        <v>-7.9866405449102729E-5</v>
-      </c>
-      <c r="T17">
-        <f t="shared" si="6"/>
-        <v>2.3861274016212519E-5</v>
-      </c>
-      <c r="U17">
-        <f t="shared" si="7"/>
-        <v>-2.8002499690149563E-5</v>
-      </c>
-      <c r="V17">
-        <f t="shared" si="1"/>
         <v>1.52587890625E-5</v>
       </c>
       <c r="X17">
-        <f t="shared" si="8"/>
-        <v>0.89397224065776904</v>
+        <f t="shared" si="9"/>
+        <v>2.0086482745076442</v>
       </c>
       <c r="Y17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Z17">
-        <f t="shared" si="10"/>
-        <v>-2.1038702118981241</v>
+        <f t="shared" si="11"/>
+        <v>-3.2687379849421041</v>
       </c>
       <c r="AA17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P18">
+        <f t="shared" si="3"/>
+        <v>1.5241546630859375</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="4"/>
+        <v>1.524169921875</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="5"/>
+        <v>1.5241622924804688</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="6"/>
+        <v>-2.8002499690149563E-5</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="7"/>
+        <v>2.3861274016212519E-5</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="8"/>
+        <v>-2.0705963010847483E-6</v>
+      </c>
+      <c r="V18">
         <f t="shared" si="2"/>
-        <v>1.5241546630859375</v>
-      </c>
-      <c r="Q18">
-        <f t="shared" si="3"/>
-        <v>1.524169921875</v>
-      </c>
-      <c r="R18">
-        <f t="shared" si="4"/>
-        <v>1.5241622924804688</v>
-      </c>
-      <c r="S18">
-        <f t="shared" si="5"/>
-        <v>-2.8002499690149563E-5</v>
-      </c>
-      <c r="T18">
-        <f t="shared" si="6"/>
-        <v>2.3861274016212519E-5</v>
-      </c>
-      <c r="U18">
-        <f t="shared" si="7"/>
-        <v>-2.0705963010847483E-6</v>
-      </c>
-      <c r="V18">
-        <f t="shared" si="1"/>
         <v>7.62939453125E-6</v>
       </c>
       <c r="X18">
-        <f t="shared" si="8"/>
-        <v>0.89397224065776904</v>
+        <f t="shared" si="9"/>
+        <v>2.0086482745076442</v>
       </c>
       <c r="Y18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Z18">
-        <f t="shared" si="10"/>
-        <v>-2.1038702118981241</v>
+        <f t="shared" si="11"/>
+        <v>-3.2687379849421041</v>
       </c>
       <c r="AA18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -2308,7 +3325,7 @@
       </c>
       <c r="Z24">
         <f>(1/((X2+4)*LN(2)))-((X2+6)^2)*COS(((X2+6)^3)/27)/18</f>
-        <v>-2.4080524665805978</v>
+        <v>-3.2922665974710781</v>
       </c>
     </row>
     <row r="25" spans="16:27" x14ac:dyDescent="0.25">
@@ -2324,173 +3341,1414 @@
         <f>ABS(P25-P24)</f>
         <v>4.9304561416463111E-2</v>
       </c>
+      <c r="T25" t="str">
+        <f>IF(S25&gt;0.001,"no","yes")</f>
+        <v>no</v>
+      </c>
     </row>
     <row r="26" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P26">
-        <f t="shared" ref="P26:P37" si="12">P25-Q26/$R$24</f>
+        <f t="shared" ref="P26:P37" si="13">P25-Q26/$R$24</f>
         <v>1.1217342250840854</v>
       </c>
       <c r="Q26">
-        <f t="shared" ref="Q26:Q37" si="13">LOG(P25+4,2)-0.5*(SIN(((P25+6)/3)^3)+5)</f>
+        <f t="shared" ref="Q26:Q37" si="14">LOG(P25+4,2)-0.5*(SIN(((P25+6)/3)^3)+5)</f>
         <v>-0.36214831833811134</v>
       </c>
       <c r="S26">
-        <f t="shared" ref="S26:S37" si="14">ABS(P26-P25)</f>
+        <f t="shared" ref="S26:S37" si="15">ABS(P26-P25)</f>
         <v>7.2429663667622268E-2</v>
+      </c>
+      <c r="T26" t="str">
+        <f t="shared" ref="T26:T37" si="16">IF(S26&gt;0.001,"no","yes")</f>
+        <v>no</v>
       </c>
     </row>
     <row r="27" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P27">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.2229536562872634</v>
       </c>
       <c r="Q27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-0.50609715601589045</v>
       </c>
       <c r="S27">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.101219431203178</v>
+      </c>
+      <c r="T27" t="str">
+        <f t="shared" si="16"/>
+        <v>no</v>
       </c>
     </row>
     <row r="28" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.3443553078839729</v>
       </c>
       <c r="Q28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-0.60700825798354829</v>
       </c>
       <c r="S28">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.12140165159670957</v>
+      </c>
+      <c r="T28" t="str">
+        <f t="shared" si="16"/>
+        <v>no</v>
       </c>
     </row>
     <row r="29" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.4467737946422228</v>
       </c>
       <c r="Q29">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-0.51209243379124869</v>
       </c>
       <c r="S29">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.10241848675824983</v>
+      </c>
+      <c r="T29" t="str">
+        <f t="shared" si="16"/>
+        <v>no</v>
       </c>
     </row>
     <row r="30" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P30">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.4978541845956672</v>
       </c>
       <c r="Q30">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-0.25540194976722175</v>
       </c>
       <c r="S30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>5.1080389953444438E-2</v>
+      </c>
+      <c r="T30" t="str">
+        <f t="shared" si="16"/>
+        <v>no</v>
       </c>
     </row>
     <row r="31" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.5157026233839956</v>
       </c>
       <c r="Q31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-8.9242193941642345E-2</v>
       </c>
       <c r="S31">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.7848438788328425E-2</v>
+      </c>
+      <c r="T31" t="str">
+        <f t="shared" si="16"/>
+        <v>no</v>
       </c>
     </row>
     <row r="32" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P32">
+        <f t="shared" si="13"/>
+        <v>1.5214553738637826</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="14"/>
+        <v>-2.8763752398934805E-2</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="15"/>
+        <v>5.7527504797869611E-3</v>
+      </c>
+      <c r="T32" t="str">
+        <f t="shared" si="16"/>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="33" spans="16:20" x14ac:dyDescent="0.25">
+      <c r="P33">
+        <f t="shared" si="13"/>
+        <v>1.5232962547298221</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="14"/>
+        <v>-9.2044043301977574E-3</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="15"/>
+        <v>1.8408808660395071E-3</v>
+      </c>
+      <c r="T33" t="str">
+        <f t="shared" si="16"/>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="34" spans="16:20" x14ac:dyDescent="0.25">
+      <c r="P34">
+        <f t="shared" si="13"/>
+        <v>1.5238854315626442</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="14"/>
+        <v>-2.9458841641103461E-3</v>
+      </c>
+      <c r="S34">
+        <f t="shared" si="15"/>
+        <v>5.8917683282211364E-4</v>
+      </c>
+      <c r="T34" t="str">
+        <f t="shared" si="16"/>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="35" spans="16:20" x14ac:dyDescent="0.25">
+      <c r="P35">
+        <f t="shared" si="13"/>
+        <v>1.5240740569145346</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="14"/>
+        <v>-9.4312675945218416E-4</v>
+      </c>
+      <c r="S35">
+        <f t="shared" si="15"/>
+        <v>1.8862535189034801E-4</v>
+      </c>
+      <c r="T35" t="str">
+        <f t="shared" si="16"/>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="36" spans="16:20" x14ac:dyDescent="0.25">
+      <c r="P36">
+        <f t="shared" si="13"/>
+        <v>1.5241344530275807</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="14"/>
+        <v>-3.0198056523067507E-4</v>
+      </c>
+      <c r="S36">
+        <f t="shared" si="15"/>
+        <v>6.0396113046090605E-5</v>
+      </c>
+      <c r="T36" t="str">
+        <f t="shared" si="16"/>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="37" spans="16:20" x14ac:dyDescent="0.25">
+      <c r="P37">
+        <f t="shared" si="13"/>
+        <v>1.5241537921405843</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="14"/>
+        <v>-9.6695565018567464E-5</v>
+      </c>
+      <c r="S37">
+        <f t="shared" si="15"/>
+        <v>1.9339113003669084E-5</v>
+      </c>
+      <c r="T37" t="str">
+        <f t="shared" si="16"/>
+        <v>yes</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AA37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Z5" sqref="Z5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S1" t="s">
+        <v>5</v>
+      </c>
+      <c r="T1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U1" t="s">
+        <v>7</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="X1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <f>LOG(A2+4,2)-0.5*(SIN(((A2+6)/3)^3)+5)</f>
+        <v>-0.99467912331169073</v>
+      </c>
+      <c r="P2">
+        <v>3</v>
+      </c>
+      <c r="Q2">
+        <v>4</v>
+      </c>
+      <c r="R2">
+        <f>(P2+Q2)/2</f>
+        <v>3.5</v>
+      </c>
+      <c r="S2">
+        <f t="shared" ref="S2:U17" si="0">LOG(P2+4,2)-0.5*(SIN(((P2+6)/3)^3)+5)</f>
+        <v>-0.17083304214464734</v>
+      </c>
+      <c r="T2">
+        <f t="shared" si="0"/>
+        <v>0.80737730588643908</v>
+      </c>
+      <c r="U2">
+        <f t="shared" si="0"/>
+        <v>0.24075852181279433</v>
+      </c>
+      <c r="V2">
+        <f>ABS(P2-R2)</f>
+        <v>0.5</v>
+      </c>
+      <c r="X2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0.5</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B16" si="1">LOG(A3+4,2)-0.5*(SIN(((A3+6)/3)^3)+5)</f>
+        <v>9.468570755269301E-3</v>
+      </c>
+      <c r="P3">
+        <f>IF(S2*U2&gt;0,R2,P2)</f>
+        <v>3</v>
+      </c>
+      <c r="Q3">
+        <f>IF(T2*U2&gt;0,R2,Q2)</f>
+        <v>3.5</v>
+      </c>
+      <c r="R3">
+        <f>(P3+Q3)/2</f>
+        <v>3.25</v>
+      </c>
+      <c r="S3">
+        <f t="shared" si="0"/>
+        <v>-0.17083304214464734</v>
+      </c>
+      <c r="T3">
+        <f t="shared" si="0"/>
+        <v>0.24075852181279433</v>
+      </c>
+      <c r="U3">
+        <f t="shared" si="0"/>
+        <v>0.78886507074098766</v>
+      </c>
+      <c r="V3">
+        <f t="shared" ref="V3:V18" si="2">ABS(P3-R3)</f>
+        <v>0.25</v>
+      </c>
+      <c r="X3">
+        <f>X2-Y3/Z3</f>
+        <v>3.1123366566923698</v>
+      </c>
+      <c r="Y3">
+        <f>LOG(X2+4,2)-0.5*(SIN(((X2+6)/3)^3)+5)</f>
+        <v>-0.17083304214464734</v>
+      </c>
+      <c r="Z3">
+        <f>(1/((X2+4)*LN(2)))-0.5*COS(((X2+6)/3)^3)*(((X2+6)/3)^2)</f>
+        <v>1.5207239308578291</v>
+      </c>
+      <c r="AA3">
+        <f>ABS(X3-X2)</f>
+        <v>0.11233665669236981</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="1"/>
+        <v>-0.24652280708231578</v>
+      </c>
+      <c r="P4">
+        <f t="shared" ref="P4:P18" si="3">IF(S3*U3&gt;0,R3,P3)</f>
+        <v>3</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" ref="Q4:Q18" si="4">IF(T3*U3&gt;0,R3,Q3)</f>
+        <v>3.25</v>
+      </c>
+      <c r="R4">
+        <f t="shared" ref="R4:R18" si="5">(P4+Q4)/2</f>
+        <v>3.125</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="0"/>
+        <v>-0.17083304214464734</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="0"/>
+        <v>0.78886507074098766</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="0"/>
+        <v>0.26627044601468564</v>
+      </c>
+      <c r="V4">
+        <f t="shared" si="2"/>
+        <v>0.125</v>
+      </c>
+      <c r="X4">
+        <f t="shared" ref="X4:X18" si="6">X3-Y4/Z4</f>
+        <v>3.0681743094632066</v>
+      </c>
+      <c r="Y4">
+        <f t="shared" ref="Y4:Y18" si="7">LOG(X3+4,2)-0.5*(SIN(((X3+6)/3)^3)+5)</f>
+        <v>0.20631551114450852</v>
+      </c>
+      <c r="Z4">
+        <f>(1/((X3+4)*LN(2)))-0.5*COS(((X3+6)/3)^3)*(((X3+6)/3)^2)</f>
+        <v>4.6717514826355471</v>
+      </c>
+      <c r="AA4">
+        <f t="shared" ref="AA4:AA18" si="8">ABS(X4-X3)</f>
+        <v>4.4162347229163235E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1.5</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="1"/>
+        <v>-8.2002446028001774E-2</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="4"/>
+        <v>3.125</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="5"/>
+        <v>3.0625</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="0"/>
+        <v>-0.17083304214464734</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="0"/>
+        <v>0.26627044601468564</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="0"/>
+        <v>-4.9479867138044753E-3</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="2"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="6"/>
+        <v>3.0639066058842594</v>
+      </c>
+      <c r="Y5">
+        <f t="shared" si="7"/>
+        <v>1.6319776555726584E-2</v>
+      </c>
+      <c r="Z5">
+        <f t="shared" ref="Z4:Z18" si="9">(1/((X4+4)*LN(2)))-0.5*COS(((X4+6)/3)^3)*(((X4+6)/3)^2)</f>
+        <v>3.8240182931712656</v>
+      </c>
+      <c r="AA5">
+        <f t="shared" si="8"/>
+        <v>4.267703578947124E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="1"/>
+        <v>2.8380447353018923E-2</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="3"/>
+        <v>3.0625</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="4"/>
+        <v>3.125</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="5"/>
+        <v>3.09375</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="0"/>
+        <v>-4.9479867138044753E-3</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="0"/>
+        <v>0.26627044601468564</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="0"/>
+        <v>0.12186309606747692</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="2"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="6"/>
+        <v>3.0638412181106944</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" si="7"/>
+        <v>2.4255584465082691E-4</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" si="9"/>
+        <v>3.7094984494350576</v>
+      </c>
+      <c r="AA6">
+        <f t="shared" si="8"/>
+        <v>6.5387773565017682E-5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2.5</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="1"/>
+        <v>0.54280057655519354</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="3"/>
+        <v>3.0625</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="4"/>
+        <v>3.09375</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="5"/>
+        <v>3.078125</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="0"/>
+        <v>-4.9479867138044753E-3</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="0"/>
+        <v>0.12186309606747692</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="0"/>
+        <v>5.5622295306324343E-2</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="2"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="6"/>
+        <v>3.0638412022932933</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" si="7"/>
+        <v>5.8646249190275057E-8</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" si="9"/>
+        <v>3.7077044552236273</v>
+      </c>
+      <c r="AA7">
+        <f t="shared" si="8"/>
+        <v>1.5817401166628997E-8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="1"/>
+        <v>-0.17083304214464734</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="3"/>
+        <v>3.0625</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="4"/>
+        <v>3.078125</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="5"/>
+        <v>3.0703125</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="0"/>
+        <v>-4.9479867138044753E-3</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="0"/>
+        <v>5.5622295306324343E-2</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="0"/>
+        <v>2.4555756338227486E-2</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="2"/>
+        <v>7.8125E-3</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="6"/>
+        <v>3.0638412022932919</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" si="7"/>
+        <v>4.8849813083506888E-15</v>
+      </c>
+      <c r="Z8">
+        <f t="shared" si="9"/>
+        <v>3.7077040211118919</v>
+      </c>
+      <c r="AA8">
+        <f t="shared" si="8"/>
+        <v>1.3322676295501878E-15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>3.5</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="1"/>
+        <v>0.24075852181279433</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="3"/>
+        <v>3.0625</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="4"/>
+        <v>3.0703125</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="5"/>
+        <v>3.06640625</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="0"/>
+        <v>-4.9479867138044753E-3</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="0"/>
+        <v>2.4555756338227486E-2</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="0"/>
+        <v>9.5999493330269914E-3</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="2"/>
+        <v>3.90625E-3</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="6"/>
+        <v>3.0638412022932919</v>
+      </c>
+      <c r="Y9">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <f t="shared" si="9"/>
+        <v>3.7077040211118599</v>
+      </c>
+      <c r="AA9">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="1"/>
+        <v>0.80737730588643908</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="3"/>
+        <v>3.0625</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="4"/>
+        <v>3.06640625</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="5"/>
+        <v>3.064453125</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="0"/>
+        <v>-4.9479867138044753E-3</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="0"/>
+        <v>9.5999493330269914E-3</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="0"/>
+        <v>2.2739562153448745E-3</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="2"/>
+        <v>1.953125E-3</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="6"/>
+        <v>3.0638412022932919</v>
+      </c>
+      <c r="Y10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <f t="shared" si="9"/>
+        <v>3.7077040211118599</v>
+      </c>
+      <c r="AA10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>4.5</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="1"/>
+        <v>1.0347096223313637</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="3"/>
+        <v>3.0625</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="4"/>
+        <v>3.064453125</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="5"/>
+        <v>3.0634765625</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="0"/>
+        <v>-4.9479867138044753E-3</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="0"/>
+        <v>2.2739562153448745E-3</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="0"/>
+        <v>-1.3501496275156732E-3</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="2"/>
+        <v>9.765625E-4</v>
+      </c>
+      <c r="X11">
+        <f t="shared" si="6"/>
+        <v>3.0638412022932919</v>
+      </c>
+      <c r="Y11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <f t="shared" si="9"/>
+        <v>3.7077040211118599</v>
+      </c>
+      <c r="AA11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="1"/>
+        <v>1.0821376901866531</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="3"/>
+        <v>3.0634765625</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="4"/>
+        <v>3.064453125</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="5"/>
+        <v>3.06396484375</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="0"/>
+        <v>-1.3501496275156732E-3</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="0"/>
+        <v>2.2739562153448745E-3</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="0"/>
+        <v>4.5863562011216885E-4</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="2"/>
+        <v>4.8828125E-4</v>
+      </c>
+      <c r="X12">
+        <f t="shared" si="6"/>
+        <v>3.0638412022932919</v>
+      </c>
+      <c r="Y12">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <f t="shared" si="9"/>
+        <v>3.7077040211118599</v>
+      </c>
+      <c r="AA12">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>5.5</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="1"/>
+        <v>0.85702478848167551</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="3"/>
+        <v>3.0634765625</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="4"/>
+        <v>3.06396484375</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="5"/>
+        <v>3.063720703125</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="0"/>
+        <v>-1.3501496275156732E-3</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="0"/>
+        <v>4.5863562011216885E-4</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="0"/>
+        <v>-4.4657591804231345E-4</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="2"/>
+        <v>2.44140625E-4</v>
+      </c>
+      <c r="X13">
+        <f t="shared" si="6"/>
+        <v>3.0638412022932919</v>
+      </c>
+      <c r="Y13">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <f t="shared" si="9"/>
+        <v>3.7077040211118599</v>
+      </c>
+      <c r="AA13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>6</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="1"/>
+        <v>0.36191507578896731</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="3"/>
+        <v>3.063720703125</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="4"/>
+        <v>3.06396484375</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="5"/>
+        <v>3.0638427734375</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="0"/>
+        <v>-4.4657591804231345E-4</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="0"/>
+        <v>4.5863562011216885E-4</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="0"/>
+        <v>5.8253715726763744E-6</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="2"/>
+        <v>1.220703125E-4</v>
+      </c>
+      <c r="X14">
+        <f t="shared" si="6"/>
+        <v>3.0638412022932919</v>
+      </c>
+      <c r="Y14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <f t="shared" si="9"/>
+        <v>3.7077040211118599</v>
+      </c>
+      <c r="AA14">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>6.5</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="1"/>
+        <v>0.93293856937070352</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="3"/>
+        <v>3.063720703125</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="4"/>
+        <v>3.0638427734375</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="5"/>
+        <v>3.06378173828125</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="0"/>
+        <v>-4.4657591804231345E-4</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="0"/>
+        <v>5.8253715726763744E-6</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="0"/>
+        <v>-2.2042642426178816E-4</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="2"/>
+        <v>6.103515625E-5</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="6"/>
+        <v>3.0638412022932919</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" si="9"/>
+        <v>3.7077040211118599</v>
+      </c>
+      <c r="AA15">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="1"/>
+        <v>1.1124554122582158</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="3"/>
+        <v>3.06378173828125</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="4"/>
+        <v>3.0638427734375</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="5"/>
+        <v>3.063812255859375</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="0"/>
+        <v>-2.2042642426178816E-4</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="0"/>
+        <v>5.8253715726763744E-6</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="0"/>
+        <v>-1.0731331020741308E-4</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="2"/>
+        <v>3.0517578125E-5</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="6"/>
+        <v>3.0638412022932919</v>
+      </c>
+      <c r="Y16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <f t="shared" si="9"/>
+        <v>3.7077040211118599</v>
+      </c>
+      <c r="AA16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="16:27" x14ac:dyDescent="0.25">
+      <c r="P17">
+        <f t="shared" si="3"/>
+        <v>3.063812255859375</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="4"/>
+        <v>3.0638427734375</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="5"/>
+        <v>3.0638275146484375</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="0"/>
+        <v>-1.0731331020741308E-4</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="0"/>
+        <v>5.8253715726763744E-6</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="0"/>
+        <v>-5.0747164793918387E-5</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="2"/>
+        <v>1.52587890625E-5</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="6"/>
+        <v>3.0638412022932919</v>
+      </c>
+      <c r="Y17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <f t="shared" si="9"/>
+        <v>3.7077040211118599</v>
+      </c>
+      <c r="AA17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="16:27" x14ac:dyDescent="0.25">
+      <c r="P18">
+        <f t="shared" si="3"/>
+        <v>3.0638275146484375</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="4"/>
+        <v>3.0638427734375</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="5"/>
+        <v>3.0638351440429688</v>
+      </c>
+      <c r="S18">
+        <f t="shared" ref="S18:U18" si="10">LOG(P18+4,2)-0.5*(SIN(((P18+6)/3)^3)+5)</f>
+        <v>-5.0747164793918387E-5</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="10"/>
+        <v>5.8253715726763744E-6</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="10"/>
+        <v>-2.2461695419195848E-5</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="2"/>
+        <v>7.62939453125E-6</v>
+      </c>
+      <c r="X18">
+        <f t="shared" si="6"/>
+        <v>3.0638412022932919</v>
+      </c>
+      <c r="Y18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <f t="shared" si="9"/>
+        <v>3.7077040211118599</v>
+      </c>
+      <c r="AA18">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="16:27" x14ac:dyDescent="0.25">
+      <c r="P23" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>11</v>
+      </c>
+      <c r="R23" t="s">
+        <v>12</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="16:27" x14ac:dyDescent="0.25">
+      <c r="P24">
+        <v>3</v>
+      </c>
+      <c r="R24">
+        <v>5</v>
+      </c>
+      <c r="Z24">
+        <f>(1/((X2+4)*LN(2)))-((X2+6)^2)*COS(((X2+6)^3)/27)/18</f>
+        <v>1.5207239308578291</v>
+      </c>
+    </row>
+    <row r="25" spans="16:27" x14ac:dyDescent="0.25">
+      <c r="P25">
+        <f>P24-Q25/$R$24</f>
+        <v>3.0341666084289294</v>
+      </c>
+      <c r="Q25">
+        <f>LOG(P24+4,2)-0.5*(SIN(((P24+6)/3)^3)+5)</f>
+        <v>-0.17083304214464734</v>
+      </c>
+      <c r="S25">
+        <f>ABS(P25-P24)</f>
+        <v>3.4166608428929379E-2</v>
+      </c>
+      <c r="T25" t="str">
+        <f>IF(S25&gt;0.001,"no","yes")</f>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="26" spans="16:27" x14ac:dyDescent="0.25">
+      <c r="P26">
+        <f t="shared" ref="P26:P37" si="11">P25-Q26/$R$24</f>
+        <v>3.0535334793663593</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" ref="Q26:Q37" si="12">LOG(P25+4,2)-0.5*(SIN(((P25+6)/3)^3)+5)</f>
+        <v>-9.6834354687149737E-2</v>
+      </c>
+      <c r="S26">
+        <f t="shared" ref="S26:S37" si="13">ABS(P26-P25)</f>
+        <v>1.9366870937429947E-2</v>
+      </c>
+      <c r="T26" t="str">
+        <f t="shared" ref="T26:T37" si="14">IF(S26&gt;0.001,"no","yes")</f>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="27" spans="16:27" x14ac:dyDescent="0.25">
+      <c r="P27">
+        <f t="shared" si="11"/>
+        <v>3.06087571404667</v>
+      </c>
+      <c r="Q27">
         <f t="shared" si="12"/>
-        <v>1.5214553738637826</v>
+        <v>-3.6711173401553054E-2</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="13"/>
+        <v>7.3422346803106997E-3</v>
+      </c>
+      <c r="T27" t="str">
+        <f t="shared" si="14"/>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="28" spans="16:27" x14ac:dyDescent="0.25">
+      <c r="P28">
+        <f t="shared" si="11"/>
+        <v>3.0630503723126066</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="12"/>
+        <v>-1.0873291329682733E-2</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="13"/>
+        <v>2.1746582659365465E-3</v>
+      </c>
+      <c r="T28" t="str">
+        <f>IF(S28&gt;0.001,"no","yes")</f>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="29" spans="16:27" x14ac:dyDescent="0.25">
+      <c r="P29">
+        <f t="shared" si="11"/>
+        <v>3.0636350840451541</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="12"/>
+        <v>-2.9235586627369692E-3</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="13"/>
+        <v>5.8471173254748265E-4</v>
+      </c>
+      <c r="T29" t="str">
+        <f t="shared" si="14"/>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="30" spans="16:27" x14ac:dyDescent="0.25">
+      <c r="P30">
+        <f t="shared" si="11"/>
+        <v>3.0637878124564506</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="12"/>
+        <v>-7.6364205648182804E-4</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="13"/>
+        <v>1.5272841129654324E-4</v>
+      </c>
+      <c r="T30" t="str">
+        <f t="shared" si="14"/>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="31" spans="16:27" x14ac:dyDescent="0.25">
+      <c r="P31">
+        <f t="shared" si="11"/>
+        <v>3.0638273953744228</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="12"/>
+        <v>-1.9791458986118116E-4</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="13"/>
+        <v>3.9582917972236231E-5</v>
+      </c>
+      <c r="T31" t="str">
+        <f t="shared" si="14"/>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="32" spans="16:27" x14ac:dyDescent="0.25">
+      <c r="P32">
+        <f t="shared" si="11"/>
+        <v>3.0638376332449293</v>
       </c>
       <c r="Q32">
+        <f t="shared" si="12"/>
+        <v>-5.118935253278778E-5</v>
+      </c>
+      <c r="S32">
         <f t="shared" si="13"/>
-        <v>-2.8763752398934805E-2</v>
-      </c>
-      <c r="S32">
+        <v>1.0237870506468738E-5</v>
+      </c>
+      <c r="T32" t="str">
         <f t="shared" si="14"/>
-        <v>5.7527504797869611E-3</v>
-      </c>
-    </row>
-    <row r="33" spans="16:19" x14ac:dyDescent="0.25">
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="33" spans="16:20" x14ac:dyDescent="0.25">
       <c r="P33">
+        <f t="shared" si="11"/>
+        <v>3.0638402798049618</v>
+      </c>
+      <c r="Q33">
         <f t="shared" si="12"/>
-        <v>1.5232962547298221</v>
-      </c>
-      <c r="Q33">
+        <v>-1.3232800161855351E-5</v>
+      </c>
+      <c r="S33">
         <f t="shared" si="13"/>
-        <v>-9.2044043301977574E-3</v>
-      </c>
-      <c r="S33">
+        <v>2.6465600324598881E-6</v>
+      </c>
+      <c r="T33" t="str">
         <f t="shared" si="14"/>
-        <v>1.8408808660395071E-3</v>
-      </c>
-    </row>
-    <row r="34" spans="16:19" x14ac:dyDescent="0.25">
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="34" spans="16:20" x14ac:dyDescent="0.25">
       <c r="P34">
+        <f t="shared" si="11"/>
+        <v>3.0638409638653643</v>
+      </c>
+      <c r="Q34">
         <f t="shared" si="12"/>
-        <v>1.5238854315626442</v>
-      </c>
-      <c r="Q34">
+        <v>-3.4203020122802741E-6</v>
+      </c>
+      <c r="S34">
         <f t="shared" si="13"/>
-        <v>-2.9458841641103461E-3</v>
-      </c>
-      <c r="S34">
+        <v>6.8406040254487266E-7</v>
+      </c>
+      <c r="T34" t="str">
         <f t="shared" si="14"/>
-        <v>5.8917683282211364E-4</v>
-      </c>
-    </row>
-    <row r="35" spans="16:19" x14ac:dyDescent="0.25">
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="35" spans="16:20" x14ac:dyDescent="0.25">
       <c r="P35">
+        <f t="shared" si="11"/>
+        <v>3.0638411406692456</v>
+      </c>
+      <c r="Q35">
         <f t="shared" si="12"/>
-        <v>1.5240740569145346</v>
-      </c>
-      <c r="Q35">
+        <v>-8.8401940656623879E-7</v>
+      </c>
+      <c r="S35">
         <f t="shared" si="13"/>
-        <v>-9.4312675945218416E-4</v>
-      </c>
-      <c r="S35">
+        <v>1.7680388131324776E-7</v>
+      </c>
+      <c r="T35" t="str">
         <f t="shared" si="14"/>
-        <v>1.8862535189034801E-4</v>
-      </c>
-    </row>
-    <row r="36" spans="16:19" x14ac:dyDescent="0.25">
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="36" spans="16:20" x14ac:dyDescent="0.25">
       <c r="P36">
+        <f t="shared" si="11"/>
+        <v>3.06384118636598</v>
+      </c>
+      <c r="Q36">
         <f t="shared" si="12"/>
-        <v>1.5241344530275807</v>
-      </c>
-      <c r="Q36">
+        <v>-2.2848367109418177E-7</v>
+      </c>
+      <c r="S36">
         <f t="shared" si="13"/>
-        <v>-3.0198056523067507E-4</v>
-      </c>
-      <c r="S36">
+        <v>4.5696734396472038E-8</v>
+      </c>
+      <c r="T36" t="str">
         <f t="shared" si="14"/>
-        <v>6.0396113046090605E-5</v>
-      </c>
-    </row>
-    <row r="37" spans="16:19" x14ac:dyDescent="0.25">
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="37" spans="16:20" x14ac:dyDescent="0.25">
       <c r="P37">
+        <f t="shared" si="11"/>
+        <v>3.0638411981767311</v>
+      </c>
+      <c r="Q37">
         <f t="shared" si="12"/>
-        <v>1.5241537921405843</v>
-      </c>
-      <c r="Q37">
+        <v>-5.9053754331017672E-8</v>
+      </c>
+      <c r="S37">
         <f t="shared" si="13"/>
-        <v>-9.6695565018567464E-5</v>
-      </c>
-      <c r="S37">
+        <v>1.1810751043839218E-8</v>
+      </c>
+      <c r="T37" t="str">
         <f t="shared" si="14"/>
-        <v>1.9339113003669084E-5</v>
+        <v>yes</v>
       </c>
     </row>
   </sheetData>
